--- a/biology/Médecine/Johann_Michael_Fehr/Johann_Michael_Fehr.xlsx
+++ b/biology/Médecine/Johann_Michael_Fehr/Johann_Michael_Fehr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Michael Fehr, né le 9 mai 1610 à Kitzingen et mort le 15 novembre 1688 à Schweinfurt, était un médecin allemand[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Michael Fehr, né le 9 mai 1610 à Kitzingen et mort le 15 novembre 1688 à Schweinfurt, était un médecin allemand.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Michael Fehr est le fils d'un maître d'hôpital de Kitzingen, Michael Fehr, et de sa femme Margarete Martin, fille de l'architecte Hans Martin.
 Il étudie la médecine aux universités de Leipzig, Wittemberg, Iéna et Altdorf bei Nürnberg. Après un long stage chez le médecin particulier saxon J. R. Sultzberger, il se rend pour son travail de doctorat à l'université de Padoue, où il obtient le titre de Dr. med. et phil. en 1641.
@@ -547,7 +561,9 @@
           <t>Œuvres (non complètes)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anchora sacra vel Scorzonera (1666)
 Hiera picra seu analecta de absynthio (1667)</t>
